--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -303,7 +303,7 @@
     <t>征免</t>
   </si>
   <si>
-    <t>{{$fe:items</t>
+    <t>{{$fe:items t.NO</t>
   </si>
   <si>
     <t>t.goodsNo</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">t.goodsName </t>
   </si>
   <si>
-    <t xml:space="preserve">t.quantity </t>
+    <t xml:space="preserve">t.quantityAndUnit </t>
   </si>
   <si>
     <t>t.priceAndUnit</t>
@@ -321,7 +321,7 @@
     <t>t.fromCountry</t>
   </si>
   <si>
-    <t>t.toCuntry</t>
+    <t>t.toCountry</t>
   </si>
   <si>
     <t>t.innerFrom</t>
@@ -357,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -437,6 +437,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -445,6 +498,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -452,33 +513,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,17 +529,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,21 +551,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -538,14 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,27 +575,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -596,13 +596,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,13 +692,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,151 +764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,13 +1016,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,6 +1046,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1057,17 +1072,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,157 +1095,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1762,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -306,7 +306,7 @@
     <t>{{$fe:items t.NO</t>
   </si>
   <si>
-    <t>t.goodsNo</t>
+    <t>t.goodsCode</t>
   </si>
   <si>
     <t xml:space="preserve">t.goodsName </t>
@@ -357,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -437,8 +437,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,15 +498,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,113 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -596,187 +596,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1011,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,213 +1095,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="10640"/>
+    <workbookView windowWidth="18020" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>境内发货人广东省新立电子信息进出口有限公司（4401913611）(914400007331235853)</t>
   </si>
   <si>
-    <t>出境关别5201                       {{departurePortType}}</t>
+    <t>出境关别                       {{departurePortType}}</t>
   </si>
   <si>
     <t>出口日期 {{exportDate}}</t>
@@ -437,6 +437,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -446,29 +498,60 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,22 +565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,80 +574,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -596,25 +596,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,139 +758,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,11 +1007,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,11 +1033,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,162 +1085,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18020" windowHeight="10640"/>
+    <workbookView windowWidth="24720" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>中华人民共和国海关出口货物报关单</t>
   </si>
@@ -233,16 +233,7 @@
     <t>{{otherCost}}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随附单证及编号</t>
-    </r>
+    <t>随附单证及编号</t>
   </si>
   <si>
     <t xml:space="preserve">标记唛码及备注
@@ -330,7 +321,16 @@
     <t>t.taxType}}</t>
   </si>
   <si>
-    <t>特殊关系确认: {{specialRelationConfirm}}                        价格影响确认:{{priceEffectConfirm}}                       支付特许权使用费确认: {{payConcessionCostConfirm}}                            自报自缴:{{selfReported}}</t>
+    <t>特殊关系确认: {{specialRelationConfirm}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">价格影响确认:{{priceEffectConfirm}} </t>
+  </si>
+  <si>
+    <t>支付特许权使用费确认: {{payConcessionCostConfirm}}</t>
+  </si>
+  <si>
+    <t>自报自缴:{{selfReported}}</t>
   </si>
   <si>
     <t>报关人员                报关人员证号                      电话                                                          兹申明对以上内容承担如实申报、依法纳税之法律责任
@@ -357,17 +357,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -400,19 +407,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -444,10 +438,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,10 +453,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,8 +468,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,18 +516,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,15 +531,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,51 +555,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -602,19 +596,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,164 +774,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -952,6 +946,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -960,6 +974,17 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -970,17 +995,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1022,24 +1036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1055,6 +1051,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1070,6 +1084,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1084,332 +1109,315 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1760,10 +1768,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1784,106 +1792,106 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.95" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" ht="12" customHeight="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="28.5" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="34"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:13">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" ht="28.5" customHeight="1" spans="1:13">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="34"/>
@@ -1892,45 +1900,45 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="39" t="s">
         <v>25</v>
       </c>
@@ -1942,22 +1950,22 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:13">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="35"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="42" t="s">
@@ -1973,22 +1981,22 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:13">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="43" t="s">
@@ -2004,50 +2012,50 @@
       </c>
     </row>
     <row r="10" ht="23.25" customHeight="1" spans="1:13">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="49"/>
     </row>
     <row r="11" ht="45.75" customHeight="1" spans="1:13">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="50"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:13">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="36" t="s">
         <v>48</v>
       </c>
@@ -2056,31 +2064,31 @@
         <v>49</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="20" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="38" t="s">
         <v>57</v>
       </c>
@@ -2089,108 +2097,101 @@
         <v>58</v>
       </c>
       <c r="H13" s="38"/>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="22" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" ht="32.25" customHeight="1" spans="1:13">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+    <row r="14" ht="21.75" customHeight="1" spans="1:13">
+      <c r="A14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="52"/>
     </row>
-    <row r="15" ht="32.25" customHeight="1" spans="1:13">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="52"/>
+    <row r="15" s="1" customFormat="1" ht="21.75" hidden="1" customHeight="1" spans="1:13">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
-    <row r="16" ht="21.75" customHeight="1" spans="1:13">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="53"/>
+    <row r="16" ht="53.85" customHeight="1" spans="1:13">
+      <c r="A16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" ht="53.85" customHeight="1" spans="1:13">
-      <c r="A17" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="54"/>
+      <c r="A17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="53"/>
     </row>
-    <row r="18" ht="53.85" customHeight="1" spans="1:13">
-      <c r="A18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="55"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="33" t="s">
-        <v>66</v>
+    <row r="20" spans="3:3">
+      <c r="C20" s="33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="52">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="A3:B3"/>
@@ -2236,10 +2237,13 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:M17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape"/>

--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="12320"/>
+    <workbookView windowWidth="24720" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -425,23 +425,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,10 +469,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,6 +500,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -478,69 +533,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,21 +555,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,181 +590,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,8 +1015,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,6 +1045,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1051,24 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1084,17 +1086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1109,151 +1100,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2112,9 +2112,7 @@
       </c>
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:13">
-      <c r="A14" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>

--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>中华人民共和国海关出口货物报关单</t>
   </si>
@@ -321,6 +323,9 @@
     <t>t.taxType}}</t>
   </si>
   <si>
+    <t xml:space="preserve">                                            </t>
+  </si>
+  <si>
     <t>特殊关系确认: {{specialRelationConfirm}}</t>
   </si>
   <si>
@@ -358,9 +363,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -368,27 +373,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -407,6 +391,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -424,6 +415,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -432,7 +437,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,18 +459,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,6 +483,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -479,14 +499,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +512,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -508,39 +565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,27 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -590,13 +595,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,37 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,136 +775,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -802,6 +829,85 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -867,39 +973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -912,61 +985,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -974,17 +992,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1002,13 +1009,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,15 +1022,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,321 +1100,324 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1768,10 +1767,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1792,400 +1791,407 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.95" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" ht="12" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="28.5" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" ht="28.5" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="39" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:13">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42" t="s">
+      <c r="L8" s="49"/>
+      <c r="M8" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:13">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="48" t="s">
+      <c r="L9" s="50"/>
+      <c r="M9" s="52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="23.25" customHeight="1" spans="1:13">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="49"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" ht="45.75" customHeight="1" spans="1:13">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="50"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:13">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="36" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="51" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:13">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="23" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:13">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="21.75" hidden="1" customHeight="1" spans="1:13">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" ht="53.85" customHeight="1" spans="1:13">
-      <c r="A16" s="30" t="s">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" ht="53.85" customHeight="1" spans="1:13">
+      <c r="A15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" ht="53.85" hidden="1" customHeight="1" spans="1:13">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" ht="53.85" customHeight="1" spans="1:13">
-      <c r="A17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46" t="s">
+      <c r="A17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="53"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="33" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22" t="s">
         <v>69</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2236,10 +2242,10 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="J17:M17"/>
   </mergeCells>
@@ -2247,4 +2253,333 @@
   <pageSetup paperSize="9" scale="82" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" ht="20" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" ht="26" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:13">
+      <c r="A4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:13">
+      <c r="A5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" ht="66" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="21.75" customHeight="1" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" ht="53.85" customHeight="1" spans="1:13">
+      <c r="A4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" ht="53.85" hidden="1" customHeight="1" spans="1:13">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/word/temp_新版出口货物报关单.xlsx
+++ b/src/main/resources/word/temp_新版出口货物报关单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="10640"/>
+    <workbookView windowWidth="24720" windowHeight="10640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -409,12 +409,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
@@ -426,6 +420,12 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -875,12 +875,12 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,18 +889,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,37 +922,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -973,6 +942,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -992,6 +981,17 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1253,7 +1253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1312,29 +1312,29 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1350,8 +1350,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1359,65 +1368,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1769,8 +1775,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1840,17 +1846,17 @@
       <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:13">
       <c r="A4" s="28" t="s">
@@ -1893,10 +1899,10 @@
       <c r="I5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
       <c r="A6" s="30" t="s">
@@ -1938,15 +1944,15 @@
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="46" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:13">
       <c r="A8" s="30" t="s">
@@ -1959,7 +1965,7 @@
       <c r="D8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="30" t="s">
         <v>30</v>
       </c>
@@ -1967,15 +1973,15 @@
       <c r="H8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1998,15 +2004,15 @@
       <c r="H9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="52" t="s">
+      <c r="L9" s="49"/>
+      <c r="M9" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2025,7 +2031,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
-      <c r="M10" s="53"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" ht="45.75" customHeight="1" spans="1:13">
       <c r="A11" s="39" t="s">
@@ -2042,7 +2048,7 @@
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:13">
       <c r="A12" s="1" t="s">
@@ -2151,38 +2157,38 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" ht="53.85" hidden="1" customHeight="1" spans="1:13">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="51"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" ht="53.85" customHeight="1" spans="1:13">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
@@ -2190,7 +2196,7 @@
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2258,15 +2264,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" ht="20" spans="1:13">
+    <row r="1" ht="13.5" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="26" spans="1:13">
+    <row r="2" ht="66" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -2372,27 +2378,26 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="19" t="s">
-        <v>68</v>
-      </c>
+    <row r="5" ht="26" customHeight="1" spans="1:13">
+      <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -2406,8 +2411,7 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
